--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507348.7853742161</v>
+        <v>509053.5413884828</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006065</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D2" t="n">
         <v>3.26531605719669</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1178,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1215,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,16 +1265,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>114.9581870864144</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>45.28887413297245</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1470,7 +1472,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1604,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>24.57149420274685</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>33.6917669883161</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
-        <v>80.33470701582003</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>9.991949277019346</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -2415,10 +2417,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>121.7911906719549</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2558,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.163491208918596</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>123.4585217040761</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>88.12692860372125</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2956,55 +2958,55 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="33">
@@ -3117,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>35.60086127148487</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>89.51051864809682</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="W35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>17.38540584383046</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>68.29221919223491</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="39">
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>75.25430606058887</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3700,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X41" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>29.79900896488246</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>109.7048055824489</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>190.3453970742846</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.197928092376224</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.0524176386246</v>
       </c>
     </row>
     <row r="46">
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4364,7 +4366,7 @@
         <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
         <v>509.4769954460863</v>
@@ -4373,7 +4375,7 @@
         <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
         <v>668.2068788942177</v>
@@ -4416,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4600,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4650,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4717,13 +4719,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F8" t="n">
         <v>730.8505943024719</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,10 +5126,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,10 +5366,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5382,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,13 +5603,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,25 +5697,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C20" t="n">
-        <v>100.4273118130612</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D20" t="n">
-        <v>100.4273118130612</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>362.4348659156472</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D24" t="n">
-        <v>362.4348659156472</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E24" t="n">
-        <v>362.4348659156472</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>841.0357507914898</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>605.8836425597472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6172,13 +6174,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X26" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X26" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2283997341556</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>166.9909447287001</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.45638675558504</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6315,10 +6317,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6342,13 +6344,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>375.9758515364179</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>375.9758515364179</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.215552771464</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6461,7 +6463,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>168.215552771464</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>875.0400559109178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>875.0400559109178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>875.0400559109178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>646.8164376473068</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>411.6643294155641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>168.215552771464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>168.215552771464</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>292.8299288097498</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C33" t="n">
-        <v>292.8299288097498</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D33" t="n">
-        <v>292.8299288097498</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E33" t="n">
-        <v>292.8299288097498</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F33" t="n">
-        <v>146.2953708366348</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>146.2953708366348</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
         <v>110.334904905842</v>
@@ -6786,43 +6788,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N33" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N33" t="n">
-        <v>726.4525409563269</v>
-      </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>772.472960762414</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>570.28636612118</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>570.28636612118</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>570.28636612118</v>
       </c>
       <c r="W33" t="n">
-        <v>500.6814290152826</v>
+        <v>570.28636612118</v>
       </c>
       <c r="X33" t="n">
-        <v>292.8299288097498</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y33" t="n">
-        <v>292.8299288097498</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="34">
@@ -6880,22 +6882,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.01731535111452</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>89.01731535111452</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>257.2326523711826</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y36" t="n">
-        <v>257.2326523711826</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>186.3493554720934</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>186.3493554720934</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>186.3493554720934</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>186.3493554720934</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>186.3493554720934</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>186.3493554720934</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X39" t="n">
-        <v>354.5646924921614</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y39" t="n">
-        <v>354.5646924921614</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7348,22 +7350,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7409,7 +7411,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7421,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W41" t="n">
-        <v>509.4769954460863</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7497,43 +7499,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>234.8108274061909</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>752.0746911317553</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>752.0746911317553</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>752.0746911317553</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V42" t="n">
-        <v>752.0746911317553</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W42" t="n">
-        <v>508.6259144876553</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X42" t="n">
-        <v>508.6259144876553</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y42" t="n">
-        <v>300.8656157227014</v>
+        <v>49.38115216564955</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.6850394389064</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C44" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7658,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>344.6327430815143</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C45" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D45" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E45" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F45" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>851.810101014164</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.8480801015824</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8064,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8456,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,13 +8774,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9012,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9249,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,19 +11147,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361377</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.4685256062839</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.4177255634863</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22604,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,10 +22628,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22726,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22790,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23103,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23151,16 +23153,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23200,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>300.3445504287207</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4196248553433</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23358,7 +23360,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>287.5198830785557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23540,10 +23542,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>148.1370047855689</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>301.5956630564418</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>135.0772631163645</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>379.4685256062839</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,10 +24305,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>104.1501914090199</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24446,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>136.180025954292</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>128.2364614568435</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>203.0173518716929</v>
+        <v>344.9587297138598</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>26.92171639560435</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>12.03090554892188</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24929,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.9726225988569</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25005,13 +25007,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>76.63458296501159</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>82.172652455741</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W35" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>149.1477778060369</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>21.10441365918017</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="39">
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>36.98113817590759</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>75.52646921322412</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25588,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25676,7 +25678,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25691,10 +25693,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>136.7341746849849</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25722,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>61.97836552138894</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>61.00025583355185</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.1455890708344</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386798</v>
       </c>
     </row>
     <row r="46">
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
         <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26445,10 +26447,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29593.37421928578</v>
+        <v>-29593.37421928574</v>
       </c>
       <c r="C6" t="n">
-        <v>51176.057312262</v>
+        <v>51176.05731226199</v>
       </c>
       <c r="D6" t="n">
-        <v>51176.057312262</v>
+        <v>51176.05731226198</v>
       </c>
       <c r="E6" t="n">
         <v>84803.65731226196</v>
       </c>
       <c r="F6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="G6" t="n">
+        <v>84803.65731226194</v>
+      </c>
+      <c r="H6" t="n">
         <v>84803.65731226196</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>84803.65731226194</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>21743.71471315573</v>
+      </c>
+      <c r="K6" t="n">
+        <v>84803.65731226194</v>
+      </c>
+      <c r="L6" t="n">
+        <v>84803.65731226194</v>
+      </c>
+      <c r="M6" t="n">
         <v>84803.65731226196</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21743.71471315574</v>
-      </c>
-      <c r="K6" t="n">
-        <v>84803.65731226196</v>
-      </c>
-      <c r="L6" t="n">
-        <v>84803.65731226197</v>
-      </c>
-      <c r="M6" t="n">
-        <v>84803.65731226194</v>
       </c>
       <c r="N6" t="n">
         <v>84803.65731226196</v>
@@ -26561,7 +26563,7 @@
         <v>84803.65731226199</v>
       </c>
       <c r="P6" t="n">
-        <v>84803.65731226197</v>
+        <v>84803.65731226196</v>
       </c>
     </row>
   </sheetData>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34784,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35732,13 +35734,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35969,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36683,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141194</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
